--- a/Paper Rebuttal/Adjustments_12_2019/Distance_Total_Data/approach_table.xlsx
+++ b/Paper Rebuttal/Adjustments_12_2019/Distance_Total_Data/approach_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Animal</t>
   </si>
@@ -44,6 +44,12 @@
   <si>
     <t>after_center</t>
   </si>
+  <si>
+    <t>partner_dev_score</t>
+  </si>
+  <si>
+    <t>novel_dev_score</t>
+  </si>
 </sst>
 </file>
 
@@ -63,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -73,14 +79,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,7 +100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:L55"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="true"/>
@@ -103,38 +113,46 @@
     <col min="8" max="8" width="13" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.140625" customWidth="true"/>
+    <col min="11" max="11" width="17.7109375" customWidth="true"/>
+    <col min="12" max="12" width="16.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -168,6 +186,12 @@
       <c r="J2">
         <v>90.371559049728702</v>
       </c>
+      <c r="K2">
+        <v>-1.8108128210000001</v>
+      </c>
+      <c r="L2">
+        <v>-0.91537555111125002</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -194,6 +218,9 @@
       <c r="I3">
         <v>173.05685896049101</v>
       </c>
+      <c r="K3">
+        <v>-4.0869562965000004</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -220,6 +247,9 @@
       <c r="J4">
         <v>138.34902251844201</v>
       </c>
+      <c r="L4">
+        <v>-6.2978348823566703</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -228,6 +258,12 @@
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="K5">
+        <v>-2.3519306042000001</v>
+      </c>
+      <c r="L5">
+        <v>-2.6516098022410399</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -260,6 +296,12 @@
       <c r="J6">
         <v>490.47855144470265</v>
       </c>
+      <c r="K6">
+        <v>-3.0297410854999995</v>
+      </c>
+      <c r="L6">
+        <v>-2.6109727799663798</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -292,6 +334,12 @@
       <c r="J7">
         <v>110.56414150163216</v>
       </c>
+      <c r="K7">
+        <v>-1.6562134314999999</v>
+      </c>
+      <c r="L7">
+        <v>-2.2437660876119701</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -324,6 +372,12 @@
       <c r="J8">
         <v>185.22445547711848</v>
       </c>
+      <c r="K8">
+        <v>-1.377957308</v>
+      </c>
+      <c r="L8">
+        <v>-2.870410674531378</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -356,6 +410,12 @@
       <c r="J9">
         <v>43.667923800558441</v>
       </c>
+      <c r="K9">
+        <v>-1.4869772234999998</v>
+      </c>
+      <c r="L9">
+        <v>-1.6894149610837665</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -388,6 +448,12 @@
       <c r="J10">
         <v>83.795816119948981</v>
       </c>
+      <c r="K10">
+        <v>-0.79608832420000009</v>
+      </c>
+      <c r="L10">
+        <v>-2.297888097812415</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -420,6 +486,12 @@
       <c r="J11">
         <v>135.50534459387902</v>
       </c>
+      <c r="K11">
+        <v>-2.8993986460000003</v>
+      </c>
+      <c r="L11">
+        <v>-1.9074061232546999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -452,6 +524,12 @@
       <c r="J12">
         <v>129.53881908553888</v>
       </c>
+      <c r="K12">
+        <v>-8.9862941754285721</v>
+      </c>
+      <c r="L12">
+        <v>-0.96162574189094951</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -484,6 +562,12 @@
       <c r="J13">
         <v>79.607245560431664</v>
       </c>
+      <c r="K13">
+        <v>-6.6178633181249999</v>
+      </c>
+      <c r="L13">
+        <v>-3.1071301332575647</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -516,6 +600,9 @@
       <c r="J14">
         <v>174.91828071143499</v>
       </c>
+      <c r="L14">
+        <v>-1.49757663421954</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -580,6 +667,12 @@
       <c r="J16">
         <v>15.5274040491629</v>
       </c>
+      <c r="K16">
+        <v>-1.3353234119999999</v>
+      </c>
+      <c r="L16">
+        <v>-1.7256077065464801</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -612,6 +705,12 @@
       <c r="J17">
         <v>56.513932101150402</v>
       </c>
+      <c r="K17">
+        <v>-1.350743246</v>
+      </c>
+      <c r="L17">
+        <v>-1.1730410633348101</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -644,6 +743,12 @@
       <c r="J18">
         <v>139.58687939382989</v>
       </c>
+      <c r="K18">
+        <v>-3.3510896692500003</v>
+      </c>
+      <c r="L18">
+        <v>-1.02272806677287</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -676,6 +781,12 @@
       <c r="J19">
         <v>100.80301667292446</v>
       </c>
+      <c r="K19">
+        <v>-1.824623133</v>
+      </c>
+      <c r="L19">
+        <v>-1.1182451928012254</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -708,6 +819,12 @@
       <c r="J20">
         <v>156.42067238689265</v>
       </c>
+      <c r="K20">
+        <v>-0.48053667700000002</v>
+      </c>
+      <c r="L20">
+        <v>-0.88970776915011185</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -740,6 +857,12 @@
       <c r="J21">
         <v>117.64122518145928</v>
       </c>
+      <c r="K21">
+        <v>-0.54055894299999996</v>
+      </c>
+      <c r="L21">
+        <v>-0.95482897626576579</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -772,6 +895,12 @@
       <c r="J22">
         <v>81.765430338815293</v>
       </c>
+      <c r="K22">
+        <v>-0.63861078733333343</v>
+      </c>
+      <c r="L22">
+        <v>-0.77768806377260113</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -804,6 +933,12 @@
       <c r="J23">
         <v>156.15468495719551</v>
       </c>
+      <c r="K23">
+        <v>-1.425516212</v>
+      </c>
+      <c r="L23">
+        <v>-3.9988108176563881</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -836,6 +971,12 @@
       <c r="J24">
         <v>262.98583233150902</v>
       </c>
+      <c r="K24">
+        <v>-1.6750372405</v>
+      </c>
+      <c r="L24">
+        <v>-0.77445277014966796</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -876,6 +1017,12 @@
       <c r="J26">
         <v>133.31117267150725</v>
       </c>
+      <c r="K26">
+        <v>-0.54966799649999998</v>
+      </c>
+      <c r="L26">
+        <v>-4.7322035974912815</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -916,6 +1063,9 @@
       <c r="J28">
         <v>122.68317038867148</v>
       </c>
+      <c r="K28">
+        <v>-6.0151947130000005</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -948,6 +1098,12 @@
       <c r="J29">
         <v>102.5618541828823</v>
       </c>
+      <c r="K29">
+        <v>-4.6962696434</v>
+      </c>
+      <c r="L29">
+        <v>-2.6109618864185098</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -980,6 +1136,12 @@
       <c r="J30">
         <v>129.55211202328164</v>
       </c>
+      <c r="K30">
+        <v>-5.6984489454545448</v>
+      </c>
+      <c r="L30">
+        <v>-1.4017570595314901</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1012,6 +1174,9 @@
       <c r="J31">
         <v>148.40940001185268</v>
       </c>
+      <c r="K31">
+        <v>-5.2720219730000011</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -1044,6 +1209,12 @@
       <c r="J32">
         <v>108.61001366441747</v>
       </c>
+      <c r="K32">
+        <v>-1.3921123440000001</v>
+      </c>
+      <c r="L32">
+        <v>-1.9150773364930425</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -1084,6 +1255,9 @@
       <c r="J34">
         <v>58.486513506977403</v>
       </c>
+      <c r="K34">
+        <v>-1.0302584809999999</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -1124,6 +1298,12 @@
       <c r="J36">
         <v>102.06182019022131</v>
       </c>
+      <c r="K36">
+        <v>-2.3617494190000001</v>
+      </c>
+      <c r="L36">
+        <v>-2.0457685552628835</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -1156,6 +1336,9 @@
       <c r="J37">
         <v>166.43800569178012</v>
       </c>
+      <c r="K37">
+        <v>-3.4238308401428568</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -1196,6 +1379,9 @@
       <c r="J39">
         <v>202.53792335107499</v>
       </c>
+      <c r="K39">
+        <v>-1.665759824</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -1228,6 +1414,12 @@
       <c r="J40">
         <v>69.845368962999089</v>
       </c>
+      <c r="K40">
+        <v>-3.6701171364285705</v>
+      </c>
+      <c r="L40">
+        <v>-1.0694449830688066</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -1260,6 +1452,12 @@
       <c r="J41">
         <v>106.56338025435994</v>
       </c>
+      <c r="K41">
+        <v>-1.6098852815</v>
+      </c>
+      <c r="L41">
+        <v>-2.3040167132819676</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -1292,6 +1490,12 @@
       <c r="J42">
         <v>248.756324758879</v>
       </c>
+      <c r="K42">
+        <v>-1.5560023190000001</v>
+      </c>
+      <c r="L42">
+        <v>-2.843649345509812</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -1324,6 +1528,12 @@
       <c r="J43">
         <v>177.30477540200084</v>
       </c>
+      <c r="K43">
+        <v>-3.2709252578500001</v>
+      </c>
+      <c r="L43">
+        <v>-2.0072213417294136</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -1356,6 +1566,12 @@
       <c r="J44">
         <v>199.41092070071448</v>
       </c>
+      <c r="K44">
+        <v>-2.2859465229999998</v>
+      </c>
+      <c r="L44">
+        <v>-3.3102334232823898</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -1388,6 +1604,12 @@
       <c r="J45">
         <v>254.88651968788099</v>
       </c>
+      <c r="K45">
+        <v>-2.1457761312000003</v>
+      </c>
+      <c r="L45">
+        <v>-3.0386535797778649</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -1420,6 +1642,12 @@
       <c r="J46">
         <v>180.9482580343402</v>
       </c>
+      <c r="K46">
+        <v>-4.0038790098000003</v>
+      </c>
+      <c r="L46">
+        <v>-3.0410044562704099</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -1452,6 +1680,9 @@
       <c r="J47">
         <v>129.00887566365401</v>
       </c>
+      <c r="K47">
+        <v>-1.4956050620000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -1484,6 +1715,12 @@
       <c r="J48">
         <v>175.3285943230423</v>
       </c>
+      <c r="K48">
+        <v>-1.7608303973333335</v>
+      </c>
+      <c r="L48">
+        <v>-3.1367055713921275</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -1516,6 +1753,12 @@
       <c r="J49">
         <v>292.18819572043401</v>
       </c>
+      <c r="K49">
+        <v>-2.3151936703333331</v>
+      </c>
+      <c r="L49">
+        <v>-2.4465398639121698</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -1548,6 +1791,12 @@
       <c r="J50">
         <v>56.119330144560166</v>
       </c>
+      <c r="K50">
+        <v>-1.9675193060000002</v>
+      </c>
+      <c r="L50">
+        <v>-1.7636562630089101</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -1580,6 +1829,12 @@
       <c r="J51">
         <v>170.62854036393074</v>
       </c>
+      <c r="K51">
+        <v>-3.1608999527999999</v>
+      </c>
+      <c r="L51">
+        <v>-1.4729059532240227</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -1612,6 +1867,12 @@
       <c r="J52">
         <v>82.673675038770241</v>
       </c>
+      <c r="K52">
+        <v>-1.9768560763333334</v>
+      </c>
+      <c r="L52">
+        <v>-1.1728942401126574</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -1644,6 +1905,12 @@
       <c r="J53">
         <v>70.749621768276498</v>
       </c>
+      <c r="K53">
+        <v>-1.1376292455000001</v>
+      </c>
+      <c r="L53">
+        <v>-1.4045232814819895</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -1676,6 +1943,9 @@
       <c r="J54">
         <v>260.10207838786027</v>
       </c>
+      <c r="L54">
+        <v>-2.6270815741318074</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -1708,6 +1978,12 @@
       <c r="J55">
         <v>162.49861383776624</v>
       </c>
+      <c r="K55">
+        <v>-4.0559131165714293</v>
+      </c>
+      <c r="L55">
+        <v>-4.144468486549302</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
